--- a/biology/Botanique/Souvenir_de_Claudius_Pernet/Souvenir_de_Claudius_Pernet.xlsx
+++ b/biology/Botanique/Souvenir_de_Claudius_Pernet/Souvenir_de_Claudius_Pernet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Souvenir de Claudius Pernet' est un cultivar de rosier obtenu par le rosiériste lyonnais Joseph Pernet-Ducher (1859-1928) en 1920. Il est dédié à la mémoire de son fils tué au combat en octobre 1914. Il était classé autrefois dans la catégorie des Pernetiana. Il a été très utilisé pour des hybridations.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le buisson de ce rosier au feuillage brillant s'élève de 120 cm à 200 cm, voire plus de 300 cm[1], pour sa version grimpante[2]. Il présente de grandes fleurs parfumées de couleur jaune d'or, à la forme caractéristique des hybrides de thé. La floraison est très remontante[3], les fleurs sont pleines et doubles (26-40 pétales)[4]. Elles sont prisées pour les fleurs à couper et éclairent les jardins. Ce rosier était autrefois beaucoup cultivé pour le forçage en serre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le buisson de ce rosier au feuillage brillant s'élève de 120 cm à 200 cm, voire plus de 300 cm, pour sa version grimpante. Il présente de grandes fleurs parfumées de couleur jaune d'or, à la forme caractéristique des hybrides de thé. La floraison est très remontante, les fleurs sont pleines et doubles (26-40 pétales). Elles sont prisées pour les fleurs à couper et éclairent les jardins. Ce rosier était autrefois beaucoup cultivé pour le forçage en serre.
 Sa zone de rusticité est de 6b à 9b; il est donc résistant aux hivers froids, mais pas trop rigoureux car il a besoin d'être protégé à partir de -5°. Ce rosier est plutôt rustique. Il est issu de 'Constance' (Pernet-Ducher 1915) x semis non nommé.
 On peut l'admirer à la roseraie de Bagatelle.
 </t>
@@ -545,7 +559,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les descendants de 'Souvenir de Claudius Pernet', l'on peut distinguer 'Gruss an Coburg' (Felberg-Leclerc 1927), 'Condesa de Sástago' (Dot 1930), 'Mercedes Gallart' (Munne 1930), 'Prudence' (Fitzhardinge 1938) et 'Madame Antoine Meilland' (Meilland 1939).
 </t>
